--- a/biology/Biologie cellulaire et moléculaire/Acide_désoxycholique/Acide_désoxycholique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Acide_désoxycholique/Acide_désoxycholique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_d%C3%A9soxycholique</t>
+          <t>Acide_désoxycholique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acide désoxycholique est un acide biliaire secondaire, sous-produit du métabolisme des bactéries du microbiote intestinal humain. Les deux acides biliaires primaires sécrétés par le foie sont l'acide cholique et l'acide chénodésoxycholique. Les bactéries métabolisent ce dernier en acide lithocholique (en) et l'acide cholique en acide désoxycholique. Il existe d'autres acides biliaires secondaires, tels que l'acide ursodésoxycholique (en).
